--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1175847.584826508</v>
+        <v>1181339.891789289</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1667317.432543013</v>
+        <v>1667317.432543014</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7966425.477977805</v>
+        <v>7966425.4779778</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7502566.289745374</v>
+        <v>7502566.289745376</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>222.9983186861749</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>97.7575956685656</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -820,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>53.03638470914571</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -902,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>404.7979889686533</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
@@ -950,13 +952,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>213.9990521998531</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -1151,7 +1153,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>17.23626954415323</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>304.9220910887695</v>
       </c>
     </row>
     <row r="9">
@@ -1294,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>53.03638470914571</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>167.8526336297001</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
@@ -1388,7 +1390,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>304.9220910887695</v>
       </c>
     </row>
     <row r="12">
@@ -1525,31 +1527,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>87.95308749070804</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1591,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>319.6806636070552</v>
+        <v>66.68447052885355</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1765,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
@@ -1777,16 +1779,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>59.30888115713329</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1844,22 +1846,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>113.3099489274171</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>104.8081591628305</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1904,7 +1906,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>114.7890777533881</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
@@ -2062,10 +2064,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,7 +2086,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>126.3839992522012</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -2096,10 +2098,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>229.2671475085639</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>159.3149947016328</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>86.33074517210657</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -2330,7 +2332,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>91.86313846158137</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2381,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>233.2385090293388</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -2482,22 +2484,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.5257066746332</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>159.3149947016329</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>165.3030636325221</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>372.9228785230929</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>164.8484195083599</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.65301522788418</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2773,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>11.61260049965488</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>229.2671475085637</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2804,13 +2806,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>296.5670687898513</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>37.10820264503684</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,16 +2964,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>32.85416843104576</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -3077,22 +3079,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>106.5645022743405</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>195.6255244520054</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3187,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3208,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>28.19205490178788</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>116.876383545772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
@@ -3281,10 +3283,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
@@ -3320,7 +3322,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>140.7311431027215</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>239.6502950934064</v>
       </c>
     </row>
     <row r="36">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.6053465906475</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3436,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>47.32923266974561</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,22 +3505,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>99.68660328817519</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>4.419382261898563</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -3679,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>22.96189723698664</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>66.03149870010103</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -3755,10 +3757,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>83.64912941749473</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>195.6255244520054</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>26.80059066111643</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,19 +3982,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>113.1312952810747</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>293.1104574604424</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4156,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.6126004996549</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>66.03149870010103</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1618.8428970031</v>
+        <v>1606.90722673124</v>
       </c>
       <c r="C2" t="n">
-        <v>1618.8428970031</v>
+        <v>1213.731725234171</v>
       </c>
       <c r="D2" t="n">
-        <v>1618.8428970031</v>
+        <v>828.2905964508384</v>
       </c>
       <c r="E2" t="n">
-        <v>1216.259372119644</v>
+        <v>425.7070715673829</v>
       </c>
       <c r="F2" t="n">
-        <v>799.3649336496217</v>
+        <v>425.7070715673829</v>
       </c>
       <c r="G2" t="n">
-        <v>386.2021781376249</v>
+        <v>425.7070715673829</v>
       </c>
       <c r="H2" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I2" t="n">
         <v>62.11912770411553</v>
@@ -4355,25 +4357,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S2" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T2" t="n">
-        <v>2715.942227706244</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U2" t="n">
-        <v>2460.189498140842</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V2" t="n">
-        <v>2118.082688844361</v>
+        <v>2763.849575909295</v>
       </c>
       <c r="W2" t="n">
-        <v>2118.082688844361</v>
+        <v>2392.850540877582</v>
       </c>
       <c r="X2" t="n">
-        <v>2118.082688844361</v>
+        <v>2003.397935810639</v>
       </c>
       <c r="Y2" t="n">
-        <v>2019.337642714496</v>
+        <v>1606.90722673124</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C3" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D3" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E3" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F3" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G3" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H3" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I3" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J3" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K3" t="n">
-        <v>787.6208502301403</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L3" t="n">
-        <v>1271.186936128453</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M3" t="n">
-        <v>1293.671671132949</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N3" t="n">
-        <v>1949.449642343508</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O3" t="n">
-        <v>2465.969924934489</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P3" t="n">
-        <v>2871.591293650886</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q3" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R3" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S3" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T3" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U3" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V3" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W3" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X3" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y3" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D4" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E4" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F4" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G4" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H4" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J4" t="n">
         <v>62.11912770411553</v>
@@ -4510,28 +4512,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R4" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S4" t="n">
-        <v>963.5661502456679</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T4" t="n">
-        <v>963.5661502456679</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="U4" t="n">
-        <v>963.5661502456679</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="V4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="W4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1346.588908101251</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="C5" t="n">
-        <v>1346.588908101251</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="D5" t="n">
-        <v>1346.588908101251</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E5" t="n">
-        <v>1346.588908101251</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F5" t="n">
         <v>937.702050557157</v>
@@ -4598,19 +4600,19 @@
         <v>2715.942227706244</v>
       </c>
       <c r="U5" t="n">
-        <v>2460.189498140842</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="V5" t="n">
-        <v>2118.082688844361</v>
+        <v>2373.835418409762</v>
       </c>
       <c r="W5" t="n">
-        <v>1747.083653812648</v>
+        <v>2157.674759622032</v>
       </c>
       <c r="X5" t="n">
-        <v>1747.083653812648</v>
+        <v>2157.674759622032</v>
       </c>
       <c r="Y5" t="n">
-        <v>1747.083653812648</v>
+        <v>2157.674759622032</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>62.11912770411553</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="K6" t="n">
-        <v>62.11912770411553</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="L6" t="n">
-        <v>545.6852136024288</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M6" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N6" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O6" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P6" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q6" t="n">
         <v>2380.454662679751</v>
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1636.253270280022</v>
+        <v>2397.459527283501</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.253270280022</v>
+        <v>2004.284025786432</v>
       </c>
       <c r="D8" t="n">
-        <v>1636.253270280022</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E8" t="n">
-        <v>1233.669745396566</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F8" t="n">
-        <v>816.7753069265442</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G8" t="n">
-        <v>403.6125514145473</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H8" t="n">
-        <v>79.52950098103798</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I8" t="n">
         <v>62.11912770411553</v>
@@ -4826,28 +4828,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S8" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T8" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U8" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V8" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W8" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X8" t="n">
-        <v>2032.743979359421</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y8" t="n">
-        <v>1636.253270280022</v>
+        <v>2797.954272994898</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4886,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K9" t="n">
-        <v>494.9732559860694</v>
+        <v>318.9689542635005</v>
       </c>
       <c r="L9" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="M9" t="n">
-        <v>1208.156408878212</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N9" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O9" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P9" t="n">
         <v>2380.454662679751</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C10" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D10" t="n">
-        <v>62.11912770411553</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E10" t="n">
-        <v>62.11912770411553</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F10" t="n">
-        <v>62.11912770411553</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G10" t="n">
-        <v>62.11912770411553</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H10" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I10" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J10" t="n">
         <v>62.11912770411553</v>
@@ -4984,28 +4986,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R10" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S10" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T10" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U10" t="n">
-        <v>115.6912334709294</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V10" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W10" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X10" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y10" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1524.144603804654</v>
+        <v>2397.459527283501</v>
       </c>
       <c r="C11" t="n">
-        <v>1524.144603804654</v>
+        <v>2004.284025786432</v>
       </c>
       <c r="D11" t="n">
-        <v>1524.144603804654</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E11" t="n">
-        <v>1354.596489027179</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F11" t="n">
-        <v>937.702050557157</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G11" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H11" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5071,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2882.455782765193</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2626.703053199792</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V11" t="n">
-        <v>2284.59624390331</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W11" t="n">
-        <v>1913.597208871598</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X11" t="n">
-        <v>1524.144603804654</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y11" t="n">
-        <v>1524.144603804654</v>
+        <v>2797.954272994898</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5123,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>802.5350401618138</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>321.165748153993</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9606302199822</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9606302199822</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9606302199822</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9606302199822</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J13" t="n">
         <v>62.11912770411553</v>
@@ -5239,10 +5241,10 @@
         <v>963.5661502456679</v>
       </c>
       <c r="X13" t="n">
-        <v>729.485828028651</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.3737668452943</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2080.089775129883</v>
+        <v>522.652680240431</v>
       </c>
       <c r="C14" t="n">
-        <v>2080.089775129883</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="D14" t="n">
-        <v>1757.180013910635</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E14" t="n">
-        <v>1354.596489027179</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F14" t="n">
-        <v>937.702050557157</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G14" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5315,13 +5317,13 @@
         <v>2080.089775129883</v>
       </c>
       <c r="W14" t="n">
-        <v>2080.089775129883</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X14" t="n">
-        <v>2080.089775129883</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y14" t="n">
-        <v>2080.089775129883</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5360,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.156408878212</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C16" t="n">
-        <v>590.5449484942064</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D16" t="n">
-        <v>434.9118353967212</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E16" t="n">
-        <v>279.3530232559237</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F16" t="n">
-        <v>122.0270884688966</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J16" t="n">
         <v>62.11912770411553</v>
@@ -5461,25 +5463,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S16" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T16" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U16" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V16" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W16" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X16" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y16" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1267.038219840925</v>
+        <v>982.9118785792598</v>
       </c>
       <c r="C17" t="n">
-        <v>1267.038219840925</v>
+        <v>589.7363770821903</v>
       </c>
       <c r="D17" t="n">
-        <v>881.5970910575932</v>
+        <v>589.7363770821903</v>
       </c>
       <c r="E17" t="n">
-        <v>479.0135661741377</v>
+        <v>589.7363770821903</v>
       </c>
       <c r="F17" t="n">
-        <v>62.11912770411553</v>
+        <v>589.7363770821903</v>
       </c>
       <c r="G17" t="n">
-        <v>62.11912770411553</v>
+        <v>176.5736215701934</v>
       </c>
       <c r="H17" t="n">
         <v>62.11912770411553</v>
@@ -5537,28 +5539,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T17" t="n">
-        <v>2795.583088995146</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U17" t="n">
-        <v>2795.583088995146</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V17" t="n">
-        <v>2453.476279698665</v>
+        <v>2540.348973468711</v>
       </c>
       <c r="W17" t="n">
-        <v>2453.476279698665</v>
+        <v>2169.349938436999</v>
       </c>
       <c r="X17" t="n">
-        <v>2064.023674631721</v>
+        <v>1779.897333370056</v>
       </c>
       <c r="Y17" t="n">
-        <v>1667.532965552322</v>
+        <v>1383.406624290657</v>
       </c>
     </row>
     <row r="18">
@@ -5598,7 +5600,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>174.7633905351325</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
         <v>802.5350401618138</v>
@@ -5701,22 +5703,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T19" t="n">
-        <v>896.8676667102127</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U19" t="n">
-        <v>611.4288749521137</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V19" t="n">
-        <v>345.4495297729379</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W19" t="n">
-        <v>62.11912770411553</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="X19" t="n">
-        <v>62.11912770411553</v>
+        <v>178.0676910913762</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.11912770411553</v>
+        <v>178.0676910913762</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1687.93534806666</v>
+        <v>2278.016120712958</v>
       </c>
       <c r="C20" t="n">
-        <v>1294.75984656959</v>
+        <v>1884.840619215889</v>
       </c>
       <c r="D20" t="n">
-        <v>1294.75984656959</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E20" t="n">
-        <v>892.1763216861347</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F20" t="n">
-        <v>475.2818832161124</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G20" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5774,28 +5776,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S20" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T20" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U20" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V20" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W20" t="n">
-        <v>2874.373407924399</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X20" t="n">
-        <v>2484.920802857455</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y20" t="n">
-        <v>2088.430093778056</v>
+        <v>2678.510866424355</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5834,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>62.11912770411553</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M21" t="n">
-        <v>689.8907773307967</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>319.5270185392441</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="C22" t="n">
-        <v>149.3219006052333</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="D22" t="n">
-        <v>149.3219006052333</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E22" t="n">
-        <v>149.3219006052333</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F22" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G22" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H22" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q22" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R22" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S22" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T22" t="n">
-        <v>727.847098413902</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U22" t="n">
-        <v>727.847098413902</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V22" t="n">
-        <v>727.847098413902</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W22" t="n">
-        <v>727.847098413902</v>
+        <v>2822.625983136954</v>
       </c>
       <c r="X22" t="n">
-        <v>727.847098413902</v>
+        <v>2588.545660919937</v>
       </c>
       <c r="Y22" t="n">
-        <v>504.7350372305453</v>
+        <v>2365.43359973658</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2073.376476849992</v>
+        <v>1660.213721337995</v>
       </c>
       <c r="C23" t="n">
-        <v>1680.200975352922</v>
+        <v>1267.038219840925</v>
       </c>
       <c r="D23" t="n">
-        <v>1294.75984656959</v>
+        <v>881.5970910575932</v>
       </c>
       <c r="E23" t="n">
-        <v>892.1763216861347</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="F23" t="n">
-        <v>475.2818832161124</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G23" t="n">
         <v>62.11912770411553</v>
@@ -6014,25 +6016,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T23" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U23" t="n">
-        <v>3105.956385205776</v>
+        <v>2846.651781195734</v>
       </c>
       <c r="V23" t="n">
-        <v>3105.956385205776</v>
+        <v>2846.651781195734</v>
       </c>
       <c r="W23" t="n">
-        <v>3105.956385205776</v>
+        <v>2846.651781195734</v>
       </c>
       <c r="X23" t="n">
-        <v>2870.361931640788</v>
+        <v>2457.199176128791</v>
       </c>
       <c r="Y23" t="n">
-        <v>2473.871222561389</v>
+        <v>2060.708467049392</v>
       </c>
     </row>
     <row r="24">
@@ -6075,13 +6077,13 @@
         <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N24" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
         <v>2380.454662679751</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.11912770411553</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="C25" t="n">
-        <v>62.11912770411553</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="D25" t="n">
-        <v>62.11912770411553</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="E25" t="n">
-        <v>62.11912770411553</v>
+        <v>573.555937604101</v>
       </c>
       <c r="F25" t="n">
-        <v>62.11912770411553</v>
+        <v>416.230002817074</v>
       </c>
       <c r="G25" t="n">
-        <v>62.11912770411553</v>
+        <v>247.9759489165196</v>
       </c>
       <c r="H25" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J25" t="n">
         <v>62.11912770411553</v>
@@ -6178,19 +6180,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U25" t="n">
-        <v>802.6419131733114</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V25" t="n">
-        <v>802.6419131733114</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="W25" t="n">
-        <v>519.3115111044891</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="X25" t="n">
-        <v>285.2311888874722</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.11912770411553</v>
+        <v>678.1273584875689</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2178.991190048171</v>
+        <v>1372.905047278128</v>
       </c>
       <c r="C26" t="n">
-        <v>1785.815688551102</v>
+        <v>979.7295457810587</v>
       </c>
       <c r="D26" t="n">
-        <v>1618.8428970031</v>
+        <v>979.7295457810587</v>
       </c>
       <c r="E26" t="n">
-        <v>1216.259372119644</v>
+        <v>577.1460208976032</v>
       </c>
       <c r="F26" t="n">
-        <v>799.3649336496217</v>
+        <v>577.1460208976032</v>
       </c>
       <c r="G26" t="n">
-        <v>386.2021781376249</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
@@ -6248,28 +6250,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R26" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S26" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T26" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U26" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="V26" t="n">
-        <v>2939.442830146827</v>
+        <v>2559.343107135867</v>
       </c>
       <c r="W26" t="n">
-        <v>2568.443795115114</v>
+        <v>2559.343107135867</v>
       </c>
       <c r="X26" t="n">
-        <v>2178.991190048171</v>
+        <v>2169.890502068924</v>
       </c>
       <c r="Y26" t="n">
-        <v>2178.991190048171</v>
+        <v>1773.399792989525</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6308,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L27" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M27" t="n">
-        <v>1173.45686322911</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N27" t="n">
-        <v>1458.313011372373</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="O27" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P27" t="n">
         <v>2380.454662679751</v>
@@ -6358,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2204.509362664224</v>
+        <v>2685.906405836517</v>
       </c>
       <c r="C28" t="n">
-        <v>2204.509362664224</v>
+        <v>2515.701287902506</v>
       </c>
       <c r="D28" t="n">
-        <v>2204.509362664224</v>
+        <v>2360.068174805021</v>
       </c>
       <c r="E28" t="n">
         <v>2204.509362664224</v>
@@ -6406,28 +6408,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R28" t="n">
-        <v>2982.055395838353</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S28" t="n">
-        <v>2982.055395838353</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T28" t="n">
-        <v>2982.055395838353</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U28" t="n">
-        <v>2982.055395838353</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V28" t="n">
-        <v>2982.055395838353</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W28" t="n">
-        <v>2698.724993769531</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X28" t="n">
-        <v>2464.644671552514</v>
+        <v>3094.226485711175</v>
       </c>
       <c r="Y28" t="n">
-        <v>2241.532610369157</v>
+        <v>2871.114424527819</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2122.63388867904</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C29" t="n">
-        <v>1729.45838718197</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D29" t="n">
-        <v>1344.017258398638</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E29" t="n">
-        <v>941.4337335151823</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F29" t="n">
-        <v>524.5392950451601</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G29" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H29" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I29" t="n">
         <v>62.11912770411553</v>
@@ -6485,28 +6487,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S29" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T29" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U29" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V29" t="n">
-        <v>2122.63388867904</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W29" t="n">
-        <v>2122.63388867904</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X29" t="n">
-        <v>2122.63388867904</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y29" t="n">
-        <v>2122.63388867904</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>861.4851108441464</v>
+        <v>1586.986833370171</v>
       </c>
       <c r="C30" t="n">
-        <v>710.8308804042387</v>
+        <v>1436.332602930263</v>
       </c>
       <c r="D30" t="n">
-        <v>580.741913025719</v>
+        <v>1306.243635551744</v>
       </c>
       <c r="E30" t="n">
-        <v>444.2954221366068</v>
+        <v>1169.797144662632</v>
       </c>
       <c r="F30" t="n">
-        <v>319.8636160197386</v>
+        <v>1045.365338545763</v>
       </c>
       <c r="G30" t="n">
-        <v>199.803798091603</v>
+        <v>925.3055206176277</v>
       </c>
       <c r="H30" t="n">
-        <v>111.5063816922039</v>
+        <v>837.0081042182287</v>
       </c>
       <c r="I30" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="L30" t="n">
-        <v>545.6852136024288</v>
+        <v>1271.186936128453</v>
       </c>
       <c r="M30" t="n">
-        <v>1173.45686322911</v>
+        <v>1898.958585755135</v>
       </c>
       <c r="N30" t="n">
-        <v>1829.234834439669</v>
+        <v>2183.814733898398</v>
       </c>
       <c r="O30" t="n">
-        <v>1974.833293963354</v>
+        <v>2700.335016489379</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Q30" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R30" t="n">
-        <v>2356.537619577816</v>
+        <v>3082.039342103841</v>
       </c>
       <c r="S30" t="n">
-        <v>2221.606942477685</v>
+        <v>2947.10866500371</v>
       </c>
       <c r="T30" t="n">
-        <v>2044.623130676593</v>
+        <v>2770.124853202618</v>
       </c>
       <c r="U30" t="n">
-        <v>1834.559987355235</v>
+        <v>2560.06170988126</v>
       </c>
       <c r="V30" t="n">
-        <v>1612.019985726302</v>
+        <v>2337.521708252327</v>
       </c>
       <c r="W30" t="n">
-        <v>1381.902739859589</v>
+        <v>2107.404462385613</v>
       </c>
       <c r="X30" t="n">
-        <v>1192.595662209601</v>
+        <v>1918.097384735625</v>
       </c>
       <c r="Y30" t="n">
-        <v>1013.281445285108</v>
+        <v>1738.783167811132</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2412.197513573019</v>
+        <v>2556.646637957778</v>
       </c>
       <c r="C31" t="n">
-        <v>2241.992395639008</v>
+        <v>2556.646637957778</v>
       </c>
       <c r="D31" t="n">
-        <v>2204.509362664224</v>
+        <v>2556.646637957778</v>
       </c>
       <c r="E31" t="n">
-        <v>2204.509362664224</v>
+        <v>2556.646637957778</v>
       </c>
       <c r="F31" t="n">
-        <v>2204.509362664224</v>
+        <v>2556.646637957778</v>
       </c>
       <c r="G31" t="n">
-        <v>2204.509362664224</v>
+        <v>2523.46060923955</v>
       </c>
       <c r="H31" t="n">
-        <v>2204.509362664224</v>
+        <v>2367.982058201044</v>
       </c>
       <c r="I31" t="n">
-        <v>2204.509362664224</v>
+        <v>2234.887632838122</v>
       </c>
       <c r="J31" t="n">
         <v>2204.509362664224</v>
@@ -6652,19 +6654,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U31" t="n">
-        <v>2820.517593447677</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V31" t="n">
-        <v>2820.517593447677</v>
+        <v>2839.977040026601</v>
       </c>
       <c r="W31" t="n">
-        <v>2820.517593447677</v>
+        <v>2556.646637957778</v>
       </c>
       <c r="X31" t="n">
-        <v>2820.517593447677</v>
+        <v>2556.646637957778</v>
       </c>
       <c r="Y31" t="n">
-        <v>2597.405532264321</v>
+        <v>2556.646637957778</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1294.75984656959</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C32" t="n">
-        <v>1294.75984656959</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D32" t="n">
         <v>1294.75984656959</v>
@@ -6725,25 +6727,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S32" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T32" t="n">
-        <v>2793.809005044126</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U32" t="n">
-        <v>2793.809005044126</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V32" t="n">
-        <v>2451.702195747645</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W32" t="n">
-        <v>2080.703160715932</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="X32" t="n">
-        <v>1691.250555648989</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y32" t="n">
-        <v>1294.75984656959</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="33">
@@ -6783,7 +6785,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L33" t="n">
-        <v>545.6852136024288</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M33" t="n">
         <v>802.5350401618138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>62.11912770411553</v>
+        <v>2716.076050659178</v>
       </c>
       <c r="C34" t="n">
-        <v>62.11912770411553</v>
+        <v>2545.870932725167</v>
       </c>
       <c r="D34" t="n">
-        <v>62.11912770411553</v>
+        <v>2545.870932725167</v>
       </c>
       <c r="E34" t="n">
-        <v>62.11912770411553</v>
+        <v>2390.31212058437</v>
       </c>
       <c r="F34" t="n">
-        <v>62.11912770411553</v>
+        <v>2232.986185797343</v>
       </c>
       <c r="G34" t="n">
-        <v>62.11912770411553</v>
+        <v>2232.986185797343</v>
       </c>
       <c r="H34" t="n">
-        <v>62.11912770411553</v>
+        <v>2232.986185797343</v>
       </c>
       <c r="I34" t="n">
-        <v>62.11912770411553</v>
+        <v>2232.986185797343</v>
       </c>
       <c r="J34" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K34" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L34" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M34" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N34" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O34" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P34" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q34" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R34" t="n">
-        <v>963.5661502456679</v>
+        <v>2982.055395838353</v>
       </c>
       <c r="S34" t="n">
-        <v>963.5661502456679</v>
+        <v>2982.055395838353</v>
       </c>
       <c r="T34" t="n">
-        <v>963.5661502456679</v>
+        <v>2982.055395838353</v>
       </c>
       <c r="U34" t="n">
-        <v>963.5661502456679</v>
+        <v>2982.055395838353</v>
       </c>
       <c r="V34" t="n">
-        <v>697.5868050664922</v>
+        <v>2716.076050659178</v>
       </c>
       <c r="W34" t="n">
-        <v>414.2564029976698</v>
+        <v>2716.076050659178</v>
       </c>
       <c r="X34" t="n">
-        <v>180.1760807806529</v>
+        <v>2716.076050659178</v>
       </c>
       <c r="Y34" t="n">
-        <v>62.11912770411553</v>
+        <v>2716.076050659178</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2535.796644191037</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C35" t="n">
-        <v>2142.621142693967</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D35" t="n">
-        <v>1757.180013910635</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E35" t="n">
-        <v>1354.596489027179</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F35" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G35" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H35" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6959,28 +6961,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T35" t="n">
-        <v>2677.949313991765</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U35" t="n">
-        <v>2535.796644191037</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="V35" t="n">
-        <v>2535.796644191037</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="W35" t="n">
-        <v>2535.796644191037</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="X35" t="n">
-        <v>2535.796644191037</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="Y35" t="n">
-        <v>2535.796644191037</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>861.4851108441464</v>
+        <v>1586.986833370171</v>
       </c>
       <c r="C36" t="n">
-        <v>710.8308804042387</v>
+        <v>1436.332602930263</v>
       </c>
       <c r="D36" t="n">
-        <v>580.741913025719</v>
+        <v>1306.243635551744</v>
       </c>
       <c r="E36" t="n">
-        <v>444.2954221366068</v>
+        <v>1169.797144662632</v>
       </c>
       <c r="F36" t="n">
-        <v>319.8636160197386</v>
+        <v>1045.365338545763</v>
       </c>
       <c r="G36" t="n">
-        <v>199.803798091603</v>
+        <v>925.3055206176277</v>
       </c>
       <c r="H36" t="n">
-        <v>111.5063816922039</v>
+        <v>837.0081042182287</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>1271.186936128453</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>1898.958585755135</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>2554.736556965694</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>2700.335016489379</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Q36" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R36" t="n">
-        <v>2356.537619577816</v>
+        <v>3082.039342103841</v>
       </c>
       <c r="S36" t="n">
-        <v>2221.606942477685</v>
+        <v>2947.10866500371</v>
       </c>
       <c r="T36" t="n">
-        <v>2044.623130676593</v>
+        <v>2770.124853202618</v>
       </c>
       <c r="U36" t="n">
-        <v>1834.559987355235</v>
+        <v>2560.06170988126</v>
       </c>
       <c r="V36" t="n">
-        <v>1612.019985726302</v>
+        <v>2337.521708252327</v>
       </c>
       <c r="W36" t="n">
-        <v>1381.902739859589</v>
+        <v>2107.404462385613</v>
       </c>
       <c r="X36" t="n">
-        <v>1192.595662209601</v>
+        <v>1918.097384735625</v>
       </c>
       <c r="Y36" t="n">
-        <v>1013.281445285108</v>
+        <v>1738.783167811132</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>62.11912770411553</v>
+        <v>308.5587575055838</v>
       </c>
       <c r="C37" t="n">
-        <v>62.11912770411553</v>
+        <v>308.5587575055838</v>
       </c>
       <c r="D37" t="n">
-        <v>62.11912770411553</v>
+        <v>308.5587575055838</v>
       </c>
       <c r="E37" t="n">
-        <v>62.11912770411553</v>
+        <v>308.5587575055838</v>
       </c>
       <c r="F37" t="n">
-        <v>62.11912770411553</v>
+        <v>308.5587575055838</v>
       </c>
       <c r="G37" t="n">
-        <v>62.11912770411553</v>
+        <v>140.3047036050293</v>
       </c>
       <c r="H37" t="n">
-        <v>62.11912770411553</v>
+        <v>140.3047036050293</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J37" t="n">
         <v>62.11912770411553</v>
@@ -7126,19 +7128,19 @@
         <v>727.847098413902</v>
       </c>
       <c r="U37" t="n">
-        <v>442.408306655803</v>
+        <v>727.847098413902</v>
       </c>
       <c r="V37" t="n">
-        <v>442.408306655803</v>
+        <v>727.847098413902</v>
       </c>
       <c r="W37" t="n">
-        <v>442.408306655803</v>
+        <v>727.847098413902</v>
       </c>
       <c r="X37" t="n">
-        <v>442.408306655803</v>
+        <v>493.7667761968851</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.2962454724463</v>
+        <v>493.7667761968851</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1344.012821542897</v>
+        <v>1201.948458533077</v>
       </c>
       <c r="C38" t="n">
-        <v>950.8373200458277</v>
+        <v>1201.948458533077</v>
       </c>
       <c r="D38" t="n">
-        <v>565.3961912624954</v>
+        <v>1201.948458533077</v>
       </c>
       <c r="E38" t="n">
-        <v>162.81266637904</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="F38" t="n">
-        <v>62.11912770411553</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G38" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H38" t="n">
         <v>62.11912770411553</v>
@@ -7178,7 +7180,7 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M38" t="n">
         <v>1605.072448403515</v>
@@ -7196,28 +7198,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3067.963471491298</v>
+        <v>3101.49236271901</v>
       </c>
       <c r="S38" t="n">
-        <v>2901.449916432349</v>
+        <v>3101.49236271901</v>
       </c>
       <c r="T38" t="n">
-        <v>2901.449916432349</v>
+        <v>3101.49236271901</v>
       </c>
       <c r="U38" t="n">
-        <v>2901.449916432349</v>
+        <v>3101.49236271901</v>
       </c>
       <c r="V38" t="n">
-        <v>2901.449916432349</v>
+        <v>2759.385553422529</v>
       </c>
       <c r="W38" t="n">
-        <v>2530.450881400636</v>
+        <v>2388.386518390816</v>
       </c>
       <c r="X38" t="n">
-        <v>2140.998276333693</v>
+        <v>1998.933913323873</v>
       </c>
       <c r="Y38" t="n">
-        <v>1744.507567254294</v>
+        <v>1602.443204244474</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C39" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D39" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F39" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G39" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H39" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>787.6208502301403</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="K39" t="n">
-        <v>787.6208502301403</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L39" t="n">
-        <v>1271.186936128453</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M39" t="n">
-        <v>1898.958585755135</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N39" t="n">
-        <v>2554.736556965694</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2700.335016489379</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>3105.956385205776</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R39" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S39" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T39" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U39" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V39" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W39" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X39" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y39" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2204.509362664224</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="C40" t="n">
-        <v>2204.509362664224</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="D40" t="n">
-        <v>2204.509362664224</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="E40" t="n">
-        <v>2204.509362664224</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="F40" t="n">
-        <v>2204.509362664224</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="G40" t="n">
-        <v>2204.509362664224</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="H40" t="n">
-        <v>2204.509362664224</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="I40" t="n">
-        <v>2204.509362664224</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q40" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R40" t="n">
-        <v>3105.956385205776</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S40" t="n">
-        <v>3105.956385205776</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T40" t="n">
-        <v>3105.956385205776</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="U40" t="n">
-        <v>2820.517593447677</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="V40" t="n">
-        <v>2554.538248268502</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="W40" t="n">
-        <v>2271.207846199679</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="X40" t="n">
-        <v>2204.509362664224</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="Y40" t="n">
-        <v>2204.509362664224</v>
+        <v>115.6912334709294</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2096.512468618851</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C41" t="n">
-        <v>1703.336967121781</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D41" t="n">
-        <v>1703.336967121781</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E41" t="n">
-        <v>1300.753442238326</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F41" t="n">
-        <v>883.8590037683033</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G41" t="n">
-        <v>470.6962482563064</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H41" t="n">
-        <v>146.6131978227971</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,28 +7435,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T41" t="n">
-        <v>2882.455782765193</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U41" t="n">
-        <v>2882.455782765193</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V41" t="n">
-        <v>2882.455782765193</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W41" t="n">
-        <v>2882.455782765193</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X41" t="n">
-        <v>2493.00317769825</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y41" t="n">
-        <v>2096.512468618851</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>861.4851108441464</v>
+        <v>1586.986833370171</v>
       </c>
       <c r="C42" t="n">
-        <v>710.8308804042387</v>
+        <v>1436.332602930263</v>
       </c>
       <c r="D42" t="n">
-        <v>580.741913025719</v>
+        <v>1306.243635551744</v>
       </c>
       <c r="E42" t="n">
-        <v>444.2954221366068</v>
+        <v>1169.797144662632</v>
       </c>
       <c r="F42" t="n">
-        <v>319.8636160197386</v>
+        <v>1045.365338545763</v>
       </c>
       <c r="G42" t="n">
-        <v>199.803798091603</v>
+        <v>925.3055206176277</v>
       </c>
       <c r="H42" t="n">
-        <v>111.5063816922039</v>
+        <v>837.0081042182287</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>1271.186936128453</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.156408878212</v>
+        <v>1898.958585755135</v>
       </c>
       <c r="N42" t="n">
-        <v>1863.93438008877</v>
+        <v>2183.814733898398</v>
       </c>
       <c r="O42" t="n">
-        <v>2380.454662679751</v>
+        <v>2700.335016489379</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Q42" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R42" t="n">
-        <v>2356.537619577816</v>
+        <v>3082.039342103841</v>
       </c>
       <c r="S42" t="n">
-        <v>2221.606942477685</v>
+        <v>2947.10866500371</v>
       </c>
       <c r="T42" t="n">
-        <v>2044.623130676593</v>
+        <v>2770.124853202618</v>
       </c>
       <c r="U42" t="n">
-        <v>1834.559987355235</v>
+        <v>2560.06170988126</v>
       </c>
       <c r="V42" t="n">
-        <v>1612.019985726302</v>
+        <v>2337.521708252327</v>
       </c>
       <c r="W42" t="n">
-        <v>1381.902739859589</v>
+        <v>2107.404462385613</v>
       </c>
       <c r="X42" t="n">
-        <v>1192.595662209601</v>
+        <v>1918.097384735625</v>
       </c>
       <c r="Y42" t="n">
-        <v>1013.281445285108</v>
+        <v>1738.783167811132</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>740.4540890623113</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C43" t="n">
-        <v>570.2489711283005</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D43" t="n">
-        <v>570.2489711283005</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E43" t="n">
-        <v>570.2489711283005</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F43" t="n">
-        <v>412.9230363412734</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G43" t="n">
-        <v>244.668982440719</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H43" t="n">
-        <v>89.19043140221294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7597,22 +7599,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U43" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V43" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W43" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X43" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y43" t="n">
-        <v>740.4540890623113</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>893.6517152721435</v>
+        <v>1966.864121118498</v>
       </c>
       <c r="C44" t="n">
-        <v>500.4762137750741</v>
+        <v>1573.688619621429</v>
       </c>
       <c r="D44" t="n">
-        <v>500.4762137750741</v>
+        <v>1188.247490838097</v>
       </c>
       <c r="E44" t="n">
-        <v>500.4762137750741</v>
+        <v>1188.247490838097</v>
       </c>
       <c r="F44" t="n">
-        <v>386.2021781376249</v>
+        <v>771.3530523680744</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2021781376249</v>
+        <v>358.1902968560775</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7664,34 +7666,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q44" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V44" t="n">
-        <v>2080.089775129883</v>
+        <v>2763.849575909294</v>
       </c>
       <c r="W44" t="n">
-        <v>2080.089775129883</v>
+        <v>2763.849575909294</v>
       </c>
       <c r="X44" t="n">
-        <v>1690.637170062939</v>
+        <v>2763.849575909294</v>
       </c>
       <c r="Y44" t="n">
-        <v>1294.14646098354</v>
+        <v>2367.358866829895</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7724,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="M45" t="n">
-        <v>689.8907773307967</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N45" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>555.24607037101</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="C46" t="n">
-        <v>385.0409524369992</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="D46" t="n">
-        <v>229.4078393395139</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="E46" t="n">
-        <v>73.84902719871644</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="F46" t="n">
-        <v>73.84902719871644</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="G46" t="n">
-        <v>73.84902719871644</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="H46" t="n">
-        <v>73.84902719871644</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="I46" t="n">
-        <v>73.84902719871644</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774165</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O46" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059146</v>
       </c>
       <c r="P46" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q46" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R46" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S46" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T46" t="n">
-        <v>963.5661502456679</v>
+        <v>3039.25790167032</v>
       </c>
       <c r="U46" t="n">
-        <v>963.5661502456679</v>
+        <v>2753.819109912221</v>
       </c>
       <c r="V46" t="n">
-        <v>963.5661502456679</v>
+        <v>2487.839764733046</v>
       </c>
       <c r="W46" t="n">
-        <v>963.5661502456679</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="X46" t="n">
-        <v>963.5661502456679</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="Y46" t="n">
-        <v>740.4540890623113</v>
+        <v>2204.509362664223</v>
       </c>
     </row>
   </sheetData>
@@ -8058,19 +8060,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>115.098975589206</v>
+        <v>313.8678003657251</v>
       </c>
       <c r="N3" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8292,7 +8294,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>133.4455245943154</v>
       </c>
       <c r="K6" t="n">
         <v>89.59693533333335</v>
@@ -8301,10 +8303,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N6" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8313,7 +8315,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8471,7 +8473,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,13 +8534,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>234.783646787533</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>324.3235533562099</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
         <v>747.7741039759435</v>
@@ -8547,7 +8549,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8708,7 +8710,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8769,25 +8771,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>342.4574509263909</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8945,7 +8947,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9006,13 +9008,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>438.5811111539143</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
@@ -9021,7 +9023,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9182,7 +9184,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9246,10 +9248,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
@@ -9480,13 +9482,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>278.2539578070002</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
@@ -9498,7 +9500,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9723,7 +9725,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
@@ -9732,7 +9734,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9954,7 +9956,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
@@ -9963,13 +9965,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>326.5064297756122</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10200,10 +10202,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271601</v>
       </c>
       <c r="O30" t="n">
-        <v>239.756709922914</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10431,10 +10433,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M33" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
@@ -10674,10 +10676,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>239.7567099229146</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10899,7 +10901,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>105.1563108732267</v>
       </c>
       <c r="K39" t="n">
         <v>89.59693533333335</v>
@@ -10908,19 +10910,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>239.7567099229146</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11139,22 +11141,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>438.5811111539143</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271601</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11315,7 +11317,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11376,7 +11378,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>90.06034685691823</v>
@@ -11385,10 +11387,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>301.8549375253375</v>
       </c>
       <c r="O45" t="n">
-        <v>491.4748860273814</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>97.84390124299935</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>294.7682063200393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22708,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,19 +22752,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182383</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -22790,10 +22792,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>7.927505116668726</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22838,13 +22840,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>153.2899924815423</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23039,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>119.7174761943066</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -23084,10 +23086,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>87.60371089983539</v>
       </c>
     </row>
     <row r="9">
@@ -23182,25 +23184,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182383</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>230.7050560049207</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23311,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>87.60371089983539</v>
       </c>
     </row>
     <row r="12">
@@ -23413,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>78.61842587084087</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>61.90605388844375</v>
+        <v>314.9022469666454</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,10 +23655,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,16 +23667,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>107.2626322044156</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
         <v>233.3618613134482</v>
@@ -23732,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>207.5322710017571</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23777,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>116.457437253347</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
@@ -23792,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>68.56686075100016</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23941,7 +23943,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23972,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>255.2027182432977</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23984,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
@@ -24029,13 +24031,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>138.0218971728315</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>24.04094380275544</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24136,7 +24138,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>69.4219302670502</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
         <v>166.5715133615489</v>
@@ -24178,7 +24180,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
         <v>282.5844038405181</v>
@@ -24187,10 +24189,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24218,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
         <v>320.8422199291742</v>
@@ -24254,13 +24256,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>161.332063808166</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24269,7 +24271,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>152.3195699869349</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24370,22 +24372,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>50.47751734475628</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24418,19 +24420,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>123.2694091388851</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>216.2836538629769</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>36.10824943378395</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24500,16 +24502,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>146.7029232765041</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
         <v>200.7879229792761</v>
@@ -24661,10 +24663,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>220.1269184951918</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>152.3195699869353</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>42.11867241366548</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>116.9685793214736</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
@@ -24850,16 +24852,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>133.7173449305031</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24892,19 +24894,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24965,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>114.7010941418369</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>171.66352022939</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25075,16 +25077,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.5715133615489</v>
@@ -25096,7 +25098,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>1.882432570371193</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>200.7879229792761</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>104.0045570257511</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25169,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25208,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>112.4640591670259</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -25220,7 +25222,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>152.8755068951984</v>
       </c>
     </row>
     <row r="36">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27.75059191374081</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
@@ -25324,16 +25326,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>84.43424843954728</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -25375,10 +25377,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25391,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>313.0388907971468</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25436,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>33.19360231543472</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
         <v>221.2655964161775</v>
@@ -25448,7 +25450,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25567,10 +25569,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>108.8015838723062</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>165.7080202947457</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>53.30461632096508</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
         <v>253.1952022697474</v>
@@ -25691,7 +25693,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>189.9325545642683</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
@@ -25795,16 +25797,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
-        <v>104.9628904481765</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
@@ -25837,22 +25839,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25868,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>299.5941988042473</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>27.73176246873186</v>
       </c>
       <c r="I44" t="n">
         <v>136.9537457384598</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
@@ -26044,7 +26046,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J46" t="n">
-        <v>18.46188697250417</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26074,22 +26076,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133472</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>648835.6420248739</v>
+        <v>648835.6420248741</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>648835.642024874</v>
+        <v>648835.6420248739</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>648835.6420248739</v>
+        <v>648835.6420248741</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>648835.642024874</v>
+        <v>648835.6420248741</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>648835.642024874</v>
+        <v>648835.6420248739</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>648835.642024874</v>
+        <v>648835.6420248739</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>648835.6420248738</v>
+        <v>648835.642024874</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>648835.6420248738</v>
+        <v>648835.6420248739</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>648835.6420248741</v>
+        <v>648835.6420248739</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>648835.6420248738</v>
+        <v>648835.6420248739</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>648835.642024874</v>
+        <v>648835.6420248739</v>
       </c>
     </row>
   </sheetData>
@@ -26323,7 +26325,7 @@
         <v>241723.0823229922</v>
       </c>
       <c r="F2" t="n">
-        <v>241723.0823229923</v>
+        <v>241723.0823229922</v>
       </c>
       <c r="G2" t="n">
         <v>241723.0823229922</v>
@@ -26335,16 +26337,16 @@
         <v>241723.0823229922</v>
       </c>
       <c r="J2" t="n">
+        <v>241723.0823229923</v>
+      </c>
+      <c r="K2" t="n">
         <v>241723.0823229922</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>241723.0823229923</v>
       </c>
-      <c r="L2" t="n">
-        <v>241723.0823229922</v>
-      </c>
       <c r="M2" t="n">
-        <v>241723.0823229922</v>
+        <v>241723.0823229923</v>
       </c>
       <c r="N2" t="n">
         <v>241723.0823229922</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="C4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="D4" t="n">
         <v>548.8206074562066</v>
@@ -26430,25 +26432,25 @@
         <v>548.8206074562066</v>
       </c>
       <c r="G4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="H4" t="n">
         <v>548.8206074562066</v>
       </c>
       <c r="I4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="J4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="K4" t="n">
         <v>548.8206074562066</v>
       </c>
       <c r="L4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="M4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="N4" t="n">
         <v>548.8206074562066</v>
@@ -26509,7 +26511,7 @@
         <v>47210.5370551278</v>
       </c>
       <c r="P5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-99883.23075942061</v>
+        <v>-99883.23075942058</v>
       </c>
       <c r="C6" t="n">
         <v>160336.1246604082</v>
@@ -26531,7 +26533,7 @@
         <v>193963.7246604082</v>
       </c>
       <c r="F6" t="n">
-        <v>193963.7246604083</v>
+        <v>193963.7246604082</v>
       </c>
       <c r="G6" t="n">
         <v>193963.7246604082</v>
@@ -26543,16 +26545,16 @@
         <v>193963.7246604082</v>
       </c>
       <c r="J6" t="n">
-        <v>-9199.988452286816</v>
+        <v>-9199.988452286721</v>
       </c>
       <c r="K6" t="n">
+        <v>193963.7246604082</v>
+      </c>
+      <c r="L6" t="n">
         <v>193963.7246604083</v>
       </c>
-      <c r="L6" t="n">
-        <v>193963.7246604082</v>
-      </c>
       <c r="M6" t="n">
-        <v>193963.7246604082</v>
+        <v>193963.7246604083</v>
       </c>
       <c r="N6" t="n">
         <v>193963.7246604082</v>
@@ -26829,7 +26831,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
     </row>
   </sheetData>
@@ -34778,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>22.71185353989412</v>
+        <v>221.4806783164132</v>
       </c>
       <c r="N3" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34948,7 +34950,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>51.00106726098205</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,10 +35023,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N6" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35033,7 +35035,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35191,7 +35193,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,13 +35254,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>145.1867114541996</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>231.936431306898</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>662.4019911217769</v>
@@ -35267,7 +35269,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35428,7 +35430,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>249.769892037502</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35665,7 +35667,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>346.1939891046024</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
@@ -35741,7 +35743,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35902,7 +35904,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,10 +35968,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
@@ -36200,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>188.193610950082</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
@@ -36218,7 +36220,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
@@ -36452,7 +36454,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36598,7 +36600,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
         <v>551.5160606510915</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
@@ -36683,13 +36685,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>233.8188708867233</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36920,10 +36922,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729934</v>
       </c>
       <c r="O30" t="n">
-        <v>147.0691510340251</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37151,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M33" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
@@ -37309,7 +37311,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37394,10 +37396,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>147.0691510340258</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37555,7 +37557,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
         <v>351.7045375065877</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>147.0691510340258</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>346.1939891046024</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729934</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,10 +38107,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>216.4828246711708</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7873271384925</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1181339.891789289</v>
+        <v>1176806.068619791</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7966425.4779778</v>
+        <v>7966425.477977806</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>222.9983186861749</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>229.2671475085639</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>115.2540412271704</v>
       </c>
       <c r="V4" t="n">
-        <v>53.03638470914571</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -913,10 +913,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>213.9990521998531</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>233.2385090293388</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>146.8340739597078</v>
       </c>
       <c r="V7" t="n">
-        <v>53.03638470914571</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,19 +1138,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>303.3069003903691</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>304.9220910887695</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>254.8338119267773</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
@@ -1387,10 +1387,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>87.03826657831647</v>
       </c>
       <c r="Y11" t="n">
-        <v>304.9220910887695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,31 +1527,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>41.08732132961094</v>
       </c>
     </row>
     <row r="14">
@@ -1612,19 +1612,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>66.68447052885355</v>
+        <v>0.7337147960734159</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -1672,7 +1672,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,19 +1849,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>191.6541629312303</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>113.3099489274171</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>114.7890777533881</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>39.19550843742077</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>126.3839992522012</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -2098,10 +2098,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>233.2385090293388</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>159.3149947016328</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>26.80574342287044</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2332,7 +2332,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
         <v>164.8484195083599</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>91.86313846158137</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2484,22 +2484,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>103.5257066746332</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U25" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>372.9228785230929</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>49.74363436786764</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>11.61260049965488</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,10 +2794,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>229.2671475085637</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2806,13 +2806,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>278.3819325245613</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -2964,16 +2964,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>32.85416843104576</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
@@ -3043,7 +3043,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>195.6255244520054</v>
+        <v>256.7115579699417</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>153.0813526230744</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>28.19205490178788</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>219.0985733926082</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>239.6502950934064</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3426,10 +3426,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>47.32923266974561</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>153.1349037771192</v>
       </c>
     </row>
     <row r="38">
@@ -3505,22 +3505,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>229.2671475085637</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.419382261898563</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -3681,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>22.96189723698664</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U40" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>195.6255244520054</v>
+        <v>233.2385090293388</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
@@ -3960,13 +3960,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>125.6476561767118</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3982,10 +3982,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>54.7004171927694</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
@@ -3994,10 +3994,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>293.1104574604424</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>66.03149870010103</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>115.2540412271705</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1606.90722673124</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C2" t="n">
-        <v>1213.731725234171</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D2" t="n">
-        <v>828.2905964508384</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E2" t="n">
-        <v>425.7070715673829</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F2" t="n">
-        <v>425.7070715673829</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G2" t="n">
-        <v>425.7070715673829</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H2" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I2" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J2" t="n">
         <v>206.7689006129436</v>
@@ -4366,16 +4366,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="V2" t="n">
-        <v>2763.849575909295</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W2" t="n">
-        <v>2392.850540877582</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="X2" t="n">
-        <v>2003.397935810639</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y2" t="n">
-        <v>1606.90722673124</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J3" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K3" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L3" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M3" t="n">
-        <v>1084.690231197904</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N3" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O3" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P3" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q3" t="n">
         <v>2380.454662679751</v>
@@ -4512,19 +4512,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R4" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S4" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T4" t="n">
-        <v>401.1300252290284</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U4" t="n">
-        <v>115.6912334709294</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V4" t="n">
-        <v>62.11912770411553</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W4" t="n">
         <v>62.11912770411553</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1757.180013910635</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C5" t="n">
-        <v>1757.180013910635</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D5" t="n">
-        <v>1757.180013910635</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E5" t="n">
-        <v>1354.596489027179</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F5" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G5" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H5" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I5" t="n">
         <v>62.11912770411553</v>
@@ -4594,25 +4594,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S5" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T5" t="n">
-        <v>2715.942227706244</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U5" t="n">
-        <v>2715.942227706244</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V5" t="n">
-        <v>2373.835418409762</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W5" t="n">
-        <v>2157.674759622032</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X5" t="n">
-        <v>2157.674759622032</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y5" t="n">
-        <v>2157.674759622032</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>112.6101842924878</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>112.6101842924878</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L6" t="n">
-        <v>596.176270190801</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M6" t="n">
-        <v>1223.947919817482</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N6" t="n">
-        <v>1223.947919817482</v>
+        <v>1314.578167032715</v>
       </c>
       <c r="O6" t="n">
-        <v>1740.468202408463</v>
+        <v>1831.098449623696</v>
       </c>
       <c r="P6" t="n">
-        <v>2146.089571124861</v>
+        <v>2236.719818340093</v>
       </c>
       <c r="Q6" t="n">
         <v>2380.454662679751</v>
@@ -4749,22 +4749,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S7" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T7" t="n">
-        <v>401.1300252290284</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U7" t="n">
-        <v>115.6912334709294</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="V7" t="n">
-        <v>62.11912770411553</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="W7" t="n">
-        <v>62.11912770411553</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X7" t="n">
         <v>62.11912770411553</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2397.459527283501</v>
+        <v>1271.040909596637</v>
       </c>
       <c r="C8" t="n">
-        <v>2004.284025786432</v>
+        <v>877.865408099568</v>
       </c>
       <c r="D8" t="n">
-        <v>1618.8428970031</v>
+        <v>877.865408099568</v>
       </c>
       <c r="E8" t="n">
-        <v>1216.259372119644</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="F8" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G8" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H8" t="n">
         <v>62.11912770411553</v>
@@ -4840,16 +4840,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="V8" t="n">
-        <v>3105.956385205776</v>
+        <v>2763.849575909295</v>
       </c>
       <c r="W8" t="n">
-        <v>3105.956385205776</v>
+        <v>2457.478969454377</v>
       </c>
       <c r="X8" t="n">
-        <v>3105.956385205776</v>
+        <v>2068.026364387433</v>
       </c>
       <c r="Y8" t="n">
-        <v>2797.954272994898</v>
+        <v>1671.535655308034</v>
       </c>
     </row>
     <row r="9">
@@ -4883,13 +4883,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J9" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K9" t="n">
-        <v>318.9689542635005</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L9" t="n">
-        <v>802.5350401618138</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M9" t="n">
         <v>802.5350401618138</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D10" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E10" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F10" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G10" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H10" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J10" t="n">
         <v>62.11912770411553</v>
@@ -4992,22 +4992,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T10" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U10" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="V10" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="W10" t="n">
-        <v>963.5661502456679</v>
+        <v>470.4392075787734</v>
       </c>
       <c r="X10" t="n">
-        <v>963.5661502456679</v>
+        <v>470.4392075787734</v>
       </c>
       <c r="Y10" t="n">
-        <v>963.5661502456679</v>
+        <v>247.3271463954168</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2397.459527283501</v>
+        <v>1818.538092260458</v>
       </c>
       <c r="C11" t="n">
-        <v>2004.284025786432</v>
+        <v>1818.538092260458</v>
       </c>
       <c r="D11" t="n">
-        <v>1618.8428970031</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E11" t="n">
-        <v>1216.259372119644</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F11" t="n">
-        <v>799.3649336496217</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2021781376249</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5065,28 +5065,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V11" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W11" t="n">
-        <v>3105.956385205776</v>
+        <v>2306.950278960053</v>
       </c>
       <c r="X11" t="n">
-        <v>3105.956385205776</v>
+        <v>2219.032837971854</v>
       </c>
       <c r="Y11" t="n">
-        <v>2797.954272994898</v>
+        <v>2219.032837971854</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N12" t="n">
-        <v>1493.196009291336</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>963.5661502456679</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="C13" t="n">
-        <v>963.5661502456679</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="D13" t="n">
-        <v>862.2091751078208</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="E13" t="n">
-        <v>706.6503629670233</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="F13" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
         <v>62.11912770411553</v>
@@ -5238,13 +5238,13 @@
         <v>963.5661502456679</v>
       </c>
       <c r="W13" t="n">
-        <v>963.5661502456679</v>
+        <v>680.2357481768456</v>
       </c>
       <c r="X13" t="n">
-        <v>963.5661502456679</v>
+        <v>446.1554259598287</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.5661502456679</v>
+        <v>404.6530811824439</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>522.652680240431</v>
+        <v>1595.865086086787</v>
       </c>
       <c r="C14" t="n">
-        <v>129.4771787433615</v>
+        <v>1202.689584589717</v>
       </c>
       <c r="D14" t="n">
-        <v>62.11912770411553</v>
+        <v>1201.948458533077</v>
       </c>
       <c r="E14" t="n">
-        <v>62.11912770411553</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="F14" t="n">
-        <v>62.11912770411553</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H14" t="n">
         <v>62.11912770411553</v>
@@ -5302,28 +5302,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2080.089775129883</v>
+        <v>2763.849575909295</v>
       </c>
       <c r="W14" t="n">
-        <v>1709.09074009817</v>
+        <v>2392.850540877582</v>
       </c>
       <c r="X14" t="n">
-        <v>1319.638135031227</v>
+        <v>2392.850540877582</v>
       </c>
       <c r="Y14" t="n">
-        <v>923.1474259518279</v>
+        <v>1996.359831798183</v>
       </c>
     </row>
     <row r="15">
@@ -5363,19 +5363,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N15" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
         <v>62.11912770411553</v>
@@ -5466,22 +5466,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T16" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U16" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V16" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>982.9118785792598</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C17" t="n">
-        <v>589.7363770821903</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D17" t="n">
-        <v>589.7363770821903</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E17" t="n">
-        <v>589.7363770821903</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F17" t="n">
-        <v>589.7363770821903</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G17" t="n">
-        <v>176.5736215701934</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H17" t="n">
         <v>62.11912770411553</v>
@@ -5539,28 +5539,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S17" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T17" t="n">
-        <v>2882.455782765193</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U17" t="n">
-        <v>2882.455782765193</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V17" t="n">
-        <v>2540.348973468711</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W17" t="n">
-        <v>2169.349938436999</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X17" t="n">
-        <v>1779.897333370056</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y17" t="n">
-        <v>1383.406624290657</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M18" t="n">
-        <v>802.5350401618138</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.11912770411553</v>
+        <v>232.3242456381263</v>
       </c>
       <c r="C19" t="n">
         <v>62.11912770411553</v>
@@ -5706,19 +5706,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U19" t="n">
-        <v>678.1273584875689</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V19" t="n">
-        <v>412.1480133083932</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W19" t="n">
-        <v>412.1480133083932</v>
+        <v>680.2357481768456</v>
       </c>
       <c r="X19" t="n">
-        <v>178.0676910913762</v>
+        <v>640.6443255127842</v>
       </c>
       <c r="Y19" t="n">
-        <v>178.0676910913762</v>
+        <v>417.5322643294276</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2278.016120712958</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C20" t="n">
-        <v>1884.840619215889</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D20" t="n">
-        <v>1757.180013910635</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E20" t="n">
-        <v>1354.596489027179</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F20" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G20" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H20" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5776,28 +5776,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T20" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U20" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V20" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W20" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X20" t="n">
-        <v>2678.510866424355</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.510866424355</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="21">
@@ -5831,13 +5831,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>568.1699486069232</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M21" t="n">
         <v>568.1699486069232</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R22" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S22" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T22" t="n">
-        <v>3105.956385205776</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U22" t="n">
-        <v>3105.956385205776</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V22" t="n">
-        <v>3105.956385205776</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W22" t="n">
-        <v>2822.625983136954</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X22" t="n">
-        <v>2588.545660919937</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y22" t="n">
-        <v>2365.43359973658</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1660.213721337995</v>
+        <v>1715.01185657461</v>
       </c>
       <c r="C23" t="n">
-        <v>1267.038219840925</v>
+        <v>1321.83635507754</v>
       </c>
       <c r="D23" t="n">
-        <v>881.5970910575932</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E23" t="n">
-        <v>479.0135661741377</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F23" t="n">
-        <v>62.11912770411553</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G23" t="n">
         <v>62.11912770411553</v>
@@ -6013,28 +6013,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S23" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T23" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U23" t="n">
-        <v>2846.651781195734</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="V23" t="n">
-        <v>2846.651781195734</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="W23" t="n">
-        <v>2846.651781195734</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="X23" t="n">
-        <v>2457.199176128791</v>
+        <v>2511.997311365405</v>
       </c>
       <c r="Y23" t="n">
-        <v>2060.708467049392</v>
+        <v>2115.506602286006</v>
       </c>
     </row>
     <row r="24">
@@ -6074,19 +6074,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M24" t="n">
-        <v>802.5350401618138</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>678.1273584875689</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C25" t="n">
-        <v>678.1273584875689</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D25" t="n">
-        <v>678.1273584875689</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E25" t="n">
-        <v>573.555937604101</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F25" t="n">
-        <v>416.230002817074</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G25" t="n">
-        <v>247.9759489165196</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H25" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I25" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
         <v>62.11912770411553</v>
@@ -6177,22 +6177,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U25" t="n">
-        <v>678.1273584875689</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V25" t="n">
-        <v>678.1273584875689</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W25" t="n">
-        <v>678.1273584875689</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X25" t="n">
-        <v>678.1273584875689</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y25" t="n">
-        <v>678.1273584875689</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1372.905047278128</v>
+        <v>1274.772592554663</v>
       </c>
       <c r="C26" t="n">
-        <v>979.7295457810587</v>
+        <v>881.5970910575932</v>
       </c>
       <c r="D26" t="n">
-        <v>979.7295457810587</v>
+        <v>881.5970910575932</v>
       </c>
       <c r="E26" t="n">
-        <v>577.1460208976032</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="F26" t="n">
-        <v>577.1460208976032</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G26" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H26" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
@@ -6250,28 +6250,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R26" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T26" t="n">
-        <v>2901.449916432349</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U26" t="n">
-        <v>2901.449916432349</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V26" t="n">
-        <v>2559.343107135867</v>
+        <v>2832.209687444114</v>
       </c>
       <c r="W26" t="n">
-        <v>2559.343107135867</v>
+        <v>2461.210652412402</v>
       </c>
       <c r="X26" t="n">
-        <v>2169.890502068924</v>
+        <v>2071.758047345459</v>
       </c>
       <c r="Y26" t="n">
-        <v>1773.399792989525</v>
+        <v>1675.26733826606</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K27" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L27" t="n">
-        <v>865.4243596646552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M27" t="n">
-        <v>1493.196009291336</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.973980501895</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2685.906405836517</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C28" t="n">
-        <v>2515.701287902506</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D28" t="n">
-        <v>2360.068174805021</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K28" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L28" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M28" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N28" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O28" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P28" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q28" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R28" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S28" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>3105.956385205776</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U28" t="n">
-        <v>3105.956385205776</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V28" t="n">
-        <v>3105.956385205776</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W28" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X28" t="n">
-        <v>3094.226485711175</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y28" t="n">
-        <v>2871.114424527819</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1919.518325348037</v>
+        <v>1344.017258398638</v>
       </c>
       <c r="C29" t="n">
-        <v>1526.342823850968</v>
+        <v>1344.017258398638</v>
       </c>
       <c r="D29" t="n">
-        <v>1294.75984656959</v>
+        <v>1344.017258398638</v>
       </c>
       <c r="E29" t="n">
-        <v>892.1763216861347</v>
+        <v>941.4337335151823</v>
       </c>
       <c r="F29" t="n">
-        <v>475.2818832161124</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G29" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H29" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I29" t="n">
         <v>62.11912770411553</v>
@@ -6487,28 +6487,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S29" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T29" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U29" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V29" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="W29" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="X29" t="n">
-        <v>2716.503780138833</v>
+        <v>2141.002713189434</v>
       </c>
       <c r="Y29" t="n">
-        <v>2320.013071059434</v>
+        <v>1744.512004110035</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C30" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D30" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E30" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F30" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G30" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H30" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I30" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K30" t="n">
-        <v>787.6208502301403</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L30" t="n">
-        <v>1271.186936128453</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M30" t="n">
-        <v>1898.958585755135</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N30" t="n">
-        <v>2183.814733898398</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O30" t="n">
-        <v>2700.335016489379</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
-        <v>3105.956385205776</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R30" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S30" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T30" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U30" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V30" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W30" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X30" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y30" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2556.646637957778</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C31" t="n">
-        <v>2556.646637957778</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D31" t="n">
-        <v>2556.646637957778</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E31" t="n">
-        <v>2556.646637957778</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F31" t="n">
-        <v>2556.646637957778</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G31" t="n">
-        <v>2523.46060923955</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H31" t="n">
-        <v>2367.982058201044</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I31" t="n">
-        <v>2234.887632838122</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K31" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L31" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M31" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N31" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O31" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P31" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>3105.956385205776</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U31" t="n">
-        <v>3105.956385205776</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V31" t="n">
-        <v>2839.977040026601</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W31" t="n">
-        <v>2556.646637957778</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X31" t="n">
-        <v>2556.646637957778</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y31" t="n">
-        <v>2556.646637957778</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2073.376476849992</v>
+        <v>1660.213721337995</v>
       </c>
       <c r="C32" t="n">
-        <v>1680.200975352922</v>
+        <v>1267.038219840925</v>
       </c>
       <c r="D32" t="n">
-        <v>1294.75984656959</v>
+        <v>881.5970910575932</v>
       </c>
       <c r="E32" t="n">
-        <v>892.1763216861347</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="F32" t="n">
-        <v>475.2818832161124</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G32" t="n">
         <v>62.11912770411553</v>
@@ -6724,28 +6724,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T32" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U32" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V32" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W32" t="n">
-        <v>2870.361931640788</v>
+        <v>2846.651781195734</v>
       </c>
       <c r="X32" t="n">
-        <v>2870.361931640788</v>
+        <v>2457.199176128791</v>
       </c>
       <c r="Y32" t="n">
-        <v>2473.871222561389</v>
+        <v>2060.708467049392</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P33" t="n">
         <v>2380.454662679751</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2716.076050659178</v>
+        <v>544.2778093373497</v>
       </c>
       <c r="C34" t="n">
-        <v>2545.870932725167</v>
+        <v>374.0726914033389</v>
       </c>
       <c r="D34" t="n">
-        <v>2545.870932725167</v>
+        <v>374.0726914033389</v>
       </c>
       <c r="E34" t="n">
-        <v>2390.31212058437</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="F34" t="n">
-        <v>2232.986185797343</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G34" t="n">
-        <v>2232.986185797343</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H34" t="n">
-        <v>2232.986185797343</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I34" t="n">
-        <v>2232.986185797343</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P34" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R34" t="n">
-        <v>2982.055395838353</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S34" t="n">
-        <v>2982.055395838353</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T34" t="n">
-        <v>2982.055395838353</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U34" t="n">
-        <v>2982.055395838353</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V34" t="n">
-        <v>2716.076050659178</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W34" t="n">
-        <v>2716.076050659178</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X34" t="n">
-        <v>2716.076050659178</v>
+        <v>729.485828028651</v>
       </c>
       <c r="Y34" t="n">
-        <v>2716.076050659178</v>
+        <v>729.485828028651</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2073.376476849992</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C35" t="n">
-        <v>1680.200975352922</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D35" t="n">
-        <v>1294.75984656959</v>
+        <v>1102.908781353157</v>
       </c>
       <c r="E35" t="n">
-        <v>892.1763216861347</v>
+        <v>700.3252564697016</v>
       </c>
       <c r="F35" t="n">
-        <v>475.2818832161124</v>
+        <v>283.4308179996793</v>
       </c>
       <c r="G35" t="n">
         <v>62.11912770411553</v>
@@ -6961,28 +6961,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S35" t="n">
-        <v>2939.442830146827</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T35" t="n">
-        <v>2715.942227706244</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U35" t="n">
-        <v>2715.942227706244</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V35" t="n">
-        <v>2715.942227706244</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W35" t="n">
-        <v>2715.942227706244</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X35" t="n">
-        <v>2715.942227706244</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y35" t="n">
-        <v>2473.871222561389</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C36" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D36" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E36" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F36" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G36" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>1271.186936128453</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M36" t="n">
-        <v>1898.958585755135</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N36" t="n">
-        <v>2554.736556965694</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O36" t="n">
-        <v>2700.335016489379</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P36" t="n">
-        <v>3105.956385205776</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R36" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S36" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T36" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U36" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V36" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W36" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X36" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y36" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>308.5587575055838</v>
+        <v>387.9573587356116</v>
       </c>
       <c r="C37" t="n">
-        <v>308.5587575055838</v>
+        <v>217.7522408016008</v>
       </c>
       <c r="D37" t="n">
-        <v>308.5587575055838</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E37" t="n">
-        <v>308.5587575055838</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F37" t="n">
-        <v>308.5587575055838</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G37" t="n">
-        <v>140.3047036050293</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H37" t="n">
-        <v>140.3047036050293</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I37" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
         <v>62.11912770411553</v>
@@ -7137,10 +7137,10 @@
         <v>727.847098413902</v>
       </c>
       <c r="X37" t="n">
-        <v>493.7667761968851</v>
+        <v>727.847098413902</v>
       </c>
       <c r="Y37" t="n">
-        <v>493.7667761968851</v>
+        <v>573.1653774269129</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1201.948458533077</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C38" t="n">
-        <v>1201.948458533077</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D38" t="n">
-        <v>1201.948458533077</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E38" t="n">
-        <v>799.3649336496217</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F38" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G38" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H38" t="n">
         <v>62.11912770411553</v>
@@ -7180,7 +7180,7 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
         <v>1605.072448403515</v>
@@ -7198,28 +7198,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3101.49236271901</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3101.49236271901</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T38" t="n">
-        <v>3101.49236271901</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U38" t="n">
-        <v>3101.49236271901</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V38" t="n">
-        <v>2759.385553422529</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W38" t="n">
-        <v>2388.386518390816</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X38" t="n">
-        <v>1998.933913323873</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y38" t="n">
-        <v>1602.443204244474</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>84.60386270860994</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>84.60386270860994</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C40" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D40" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E40" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F40" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G40" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H40" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I40" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
         <v>62.11912770411553</v>
@@ -7356,28 +7356,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R40" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S40" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T40" t="n">
-        <v>401.1300252290284</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U40" t="n">
-        <v>115.6912334709294</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V40" t="n">
-        <v>115.6912334709294</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W40" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X40" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y40" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="41">
@@ -7435,22 +7435,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U41" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V41" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W41" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X41" t="n">
         <v>2870.361931640788</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C42" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D42" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E42" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F42" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G42" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>787.6208502301403</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>787.6208502301403</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L42" t="n">
-        <v>1271.186936128453</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M42" t="n">
-        <v>1898.958585755135</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N42" t="n">
-        <v>2183.814733898398</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2700.335016489379</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>3105.956385205776</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R42" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S42" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T42" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U42" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V42" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W42" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X42" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y42" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="43">
@@ -7599,19 +7599,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>896.8676667102127</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U43" t="n">
-        <v>611.4288749521137</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V43" t="n">
-        <v>345.4495297729379</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W43" t="n">
-        <v>62.11912770411553</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="X43" t="n">
-        <v>62.11912770411553</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="Y43" t="n">
         <v>62.11912770411553</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1966.864121118498</v>
+        <v>1881.525411633558</v>
       </c>
       <c r="C44" t="n">
-        <v>1573.688619621429</v>
+        <v>1488.349910136488</v>
       </c>
       <c r="D44" t="n">
-        <v>1188.247490838097</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E44" t="n">
-        <v>1188.247490838097</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F44" t="n">
-        <v>771.3530523680744</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G44" t="n">
-        <v>358.1902968560775</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411552</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7663,37 +7663,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P44" t="n">
         <v>2921.110825064827</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491297</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491297</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491297</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491297</v>
       </c>
       <c r="V44" t="n">
-        <v>2763.849575909294</v>
+        <v>3067.963471491297</v>
       </c>
       <c r="W44" t="n">
-        <v>2763.849575909294</v>
+        <v>3067.963471491297</v>
       </c>
       <c r="X44" t="n">
-        <v>2763.849575909294</v>
+        <v>2678.510866424354</v>
       </c>
       <c r="Y44" t="n">
-        <v>2367.358866829895</v>
+        <v>2282.020157344955</v>
       </c>
     </row>
     <row r="45">
@@ -7712,10 +7712,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F45" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G45" t="n">
         <v>199.803798091603</v>
@@ -7724,28 +7724,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860693</v>
       </c>
       <c r="L45" t="n">
-        <v>381.8582737663419</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1009.629923393023</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="C46" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="D46" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="E46" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="F46" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G46" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H46" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I46" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J46" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K46" t="n">
-        <v>2286.344403774165</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878571</v>
       </c>
       <c r="M46" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261211</v>
       </c>
       <c r="N46" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>2982.658023059146</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R46" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S46" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>3039.25790167032</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U46" t="n">
-        <v>2753.819109912221</v>
+        <v>611.4288749521136</v>
       </c>
       <c r="V46" t="n">
-        <v>2487.839764733046</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W46" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="X46" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="Y46" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411551</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8066,19 +8066,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>313.8678003657251</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8236,7 +8236,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,7 +8294,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>133.4455245943154</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>89.59693533333335</v>
@@ -8303,10 +8303,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8315,7 +8315,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>236.1748646101141</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8473,7 +8473,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,16 +8531,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>234.783646787533</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N9" t="n">
         <v>747.7741039759435</v>
@@ -8710,7 +8710,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8777,19 +8777,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>324.3235533562099</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9011,10 +9011,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
@@ -9023,10 +9023,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9184,7 +9184,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9242,16 +9242,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M18" t="n">
-        <v>351.8313913012159</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
@@ -9263,7 +9263,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9409,7 +9409,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N20" t="n">
         <v>682.2612020826953</v>
@@ -9479,16 +9479,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>278.2539578070002</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
@@ -9722,10 +9722,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>351.8313913012159</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
@@ -9737,7 +9737,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9956,25 +9956,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10193,16 +10193,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>280.5807329993939</v>
       </c>
       <c r="N30" t="n">
-        <v>373.1055958271601</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10211,7 +10211,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,13 +10427,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
@@ -10442,10 +10442,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10670,7 +10670,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
@@ -10679,13 +10679,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>239.7567099229146</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>105.1563108732267</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,19 +11138,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>373.1055958271601</v>
+        <v>510.5662141339224</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11159,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11375,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>301.8549375253375</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>97.84390124299935</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22606,10 +22606,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>138.0218971728315</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22752,22 +22752,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="V4" t="n">
-        <v>210.2831670182383</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -22786,10 +22786,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22801,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>153.2899924815423</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>152.3195699869349</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22989,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>135.7503298808103</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2831670182383</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -23026,19 +23026,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23080,16 +23080,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>63.98214429102632</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>87.60371089983539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23232,7 +23232,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -23241,13 +23241,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>25.66328612135689</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
@@ -23320,13 +23320,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>298.5198124379573</v>
       </c>
       <c r="Y11" t="n">
-        <v>87.60371089983539</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>179.7936192419121</v>
       </c>
     </row>
     <row r="14">
@@ -23500,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>314.9022469666454</v>
+        <v>380.8530026994255</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23737,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>189.9325545642687</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>207.5322710017571</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.56686075100016</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
@@ -23946,19 +23946,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>192.544010557426</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>255.2027182432977</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
@@ -24034,10 +24034,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>152.3195699869349</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.04094380275544</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
@@ -24180,22 +24180,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.7809740726285</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>320.8422199291742</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>161.332063808166</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24372,22 +24372,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>50.47751734475628</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24417,16 +24417,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>36.10824943378395</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>288.9421068356492</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
@@ -24654,22 +24654,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>220.1269184951918</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>152.3195699869353</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -24745,7 +24745,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>107.1761464917125</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24852,16 +24852,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>133.7173449305031</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
         <v>164.8484195083599</v>
@@ -24979,10 +24979,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>171.66352022939</v>
+        <v>110.5774867114537</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.9218713963151401</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>1.882432570371193</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
         <v>200.7879229792761</v>
@@ -25134,13 +25134,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>189.9325545642687</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
         <v>253.1952022697474</v>
@@ -25219,10 +25219,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>152.8755068951984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
@@ -25326,16 +25326,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>84.43424843954728</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>67.74603679440384</v>
       </c>
     </row>
     <row r="38">
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>152.3195699869353</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>33.19360231543472</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
         <v>164.8484195083599</v>
@@ -25450,10 +25450,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25569,10 +25569,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>108.8015838723062</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
@@ -25693,7 +25693,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>189.9325545642683</v>
+        <v>152.3195699869349</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>106.0918628181349</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>326.8863003027295</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>27.73176246873186</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>164.8484195083599</v>
@@ -25924,13 +25924,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>167.3303626133472</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>648835.6420248739</v>
+        <v>648835.642024874</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>648835.6420248741</v>
+        <v>648835.6420248739</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>648835.6420248739</v>
+        <v>648835.642024874</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>648835.6420248739</v>
+        <v>648835.642024874</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>648835.6420248741</v>
+        <v>648835.642024874</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>648835.6420248741</v>
+        <v>648835.6420248739</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>648835.6420248739</v>
+        <v>648835.642024874</v>
       </c>
     </row>
     <row r="9">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>648835.6420248739</v>
+        <v>648835.6420248738</v>
       </c>
     </row>
   </sheetData>
@@ -26337,7 +26337,7 @@
         <v>241723.0823229922</v>
       </c>
       <c r="J2" t="n">
-        <v>241723.0823229923</v>
+        <v>241723.0823229922</v>
       </c>
       <c r="K2" t="n">
         <v>241723.0823229922</v>
@@ -26346,7 +26346,7 @@
         <v>241723.0823229923</v>
       </c>
       <c r="M2" t="n">
-        <v>241723.0823229923</v>
+        <v>241723.0823229922</v>
       </c>
       <c r="N2" t="n">
         <v>241723.0823229922</v>
@@ -26355,7 +26355,7 @@
         <v>241723.0823229922</v>
       </c>
       <c r="P2" t="n">
-        <v>241723.0823229923</v>
+        <v>241723.0823229922</v>
       </c>
     </row>
     <row r="3">
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>548.8206074562066</v>
+      </c>
+      <c r="C4" t="n">
+        <v>548.8206074562066</v>
+      </c>
+      <c r="D4" t="n">
         <v>548.8206074562065</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
+        <v>548.8206074562066</v>
+      </c>
+      <c r="F4" t="n">
         <v>548.8206074562065</v>
       </c>
-      <c r="D4" t="n">
-        <v>548.8206074562066</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>548.8206074562065</v>
       </c>
-      <c r="F4" t="n">
-        <v>548.8206074562066</v>
-      </c>
-      <c r="G4" t="n">
-        <v>548.8206074562066</v>
-      </c>
       <c r="H4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="I4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="J4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="K4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="L4" t="n">
         <v>548.8206074562066</v>
       </c>
       <c r="M4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="N4" t="n">
         <v>548.8206074562066</v>
       </c>
       <c r="O4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="P4" t="n">
         <v>548.8206074562066</v>
@@ -26511,7 +26511,7 @@
         <v>47210.5370551278</v>
       </c>
       <c r="P5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.53705512778</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-99883.23075942058</v>
+        <v>-100414.3257912858</v>
       </c>
       <c r="C6" t="n">
-        <v>160336.1246604082</v>
+        <v>159805.029628543</v>
       </c>
       <c r="D6" t="n">
-        <v>160336.1246604082</v>
+        <v>159805.0296285431</v>
       </c>
       <c r="E6" t="n">
-        <v>193963.7246604082</v>
+        <v>193432.6296285431</v>
       </c>
       <c r="F6" t="n">
-        <v>193963.7246604082</v>
+        <v>193432.629628543</v>
       </c>
       <c r="G6" t="n">
-        <v>193963.7246604082</v>
+        <v>193432.629628543</v>
       </c>
       <c r="H6" t="n">
-        <v>193963.7246604082</v>
+        <v>193432.629628543</v>
       </c>
       <c r="I6" t="n">
-        <v>193963.7246604082</v>
+        <v>193432.629628543</v>
       </c>
       <c r="J6" t="n">
-        <v>-9199.988452286721</v>
+        <v>-9731.083484151975</v>
       </c>
       <c r="K6" t="n">
-        <v>193963.7246604082</v>
+        <v>193432.629628543</v>
       </c>
       <c r="L6" t="n">
-        <v>193963.7246604083</v>
+        <v>193432.6296285431</v>
       </c>
       <c r="M6" t="n">
-        <v>193963.7246604083</v>
+        <v>193432.6296285431</v>
       </c>
       <c r="N6" t="n">
-        <v>193963.7246604082</v>
+        <v>193432.6296285431</v>
       </c>
       <c r="O6" t="n">
-        <v>193963.7246604082</v>
+        <v>193432.629628543</v>
       </c>
       <c r="P6" t="n">
-        <v>193963.7246604083</v>
+        <v>193432.629628543</v>
       </c>
     </row>
   </sheetData>
@@ -26831,7 +26831,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014439</v>
       </c>
     </row>
   </sheetData>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34786,19 +34786,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>221.4806783164132</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>51.00106726098205</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35035,7 +35035,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>145.1867114542002</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35193,7 +35193,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>145.1867114541996</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N9" t="n">
         <v>662.4019911217769</v>
@@ -35430,7 +35430,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35497,19 +35497,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>231.936431306898</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35731,10 +35731,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
@@ -35743,10 +35743,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M18" t="n">
-        <v>259.444269251904</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
@@ -35983,7 +35983,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N20" t="n">
         <v>533.1427107449111</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>188.193610950082</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
@@ -36442,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>259.444269251904</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
@@ -36457,7 +36457,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>188.193610950082</v>
       </c>
       <c r="N30" t="n">
-        <v>287.7334829729934</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36931,7 +36931,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
         <v>634.1127774006881</v>
@@ -37162,10 +37162,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37390,7 +37390,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
@@ -37399,13 +37399,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>147.0691510340258</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>22.71185353989334</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>287.7334829729934</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37879,7 +37879,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>216.4828246711708</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
